--- a/pred_ohlcv/54_21/2019-11-21 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4254.803117581894</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4252.142117581894</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>4431.320117581894</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>4431.320117581894</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4369.647817581894</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3837.025717581894</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3892.664417581894</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3925.313417581894</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3962.255817581894</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3970.781417581893</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3970.881417581893</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -912,7 +912,7 @@
         <v>4305.042217581893</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>4204.730017581893</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>4204.650017581893</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4117.500417581893</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4124.541217581893</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4124.541217581893</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4079.879717581893</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4080.226917581893</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4017.331217581893</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4017.331217581893</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4167.752417581893</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4635.389117581893</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5025.183717581893</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4892.352517581893</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>4892.352517581893</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4884.825117581893</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>5046.435517581893</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>5046.435517581893</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5023.575717581893</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5034.409817581893</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>4975.053217581893</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>4974.758317581893</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5197.595117581893</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5245.134317581893</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5245.134317581893</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5380.778117581893</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5121.367917581892</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>7631.294137806613</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>7411.575637806613</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>7443.306937806614</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7369.777837806614</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>9144.116957705923</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>9545.969457705924</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>9466.890956613028</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>9749.535856613027</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10223.11745661303</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>10025.84895661303</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>10105.28595661303</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>9507.600456613027</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>9594.331602092292</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>9348.673602092293</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>8428.708702092292</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>8428.708702092292</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>7900.031402092292</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>7132.858006903288</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>7057.369406903288</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>6283.752906903288</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>6511.45303909841</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>6511.45303909841</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>6516.78993909841</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>6614.450476394943</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>6609.292676394943</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>5384.866061221558</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>5438.787361221558</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>5438.787361221558</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>5022.51306122156</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>4951.95026122156</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>5433.65576122156</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>5454.31656122156</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>5517.164371396193</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>5608.378371396193</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>5838.582271396193</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>5907.043571396193</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>4992.409371396194</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>3014.414708318825</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>3003.204708318824</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>3062.054108318825</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>3069.436108318825</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>3032.044108318825</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>3383.436408318825</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>3337.980508318825</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3345.249808318825</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2913.582408318824</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2916.659508318824</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2936.330908318825</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2936.330908318825</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2931.999208318824</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2931.999208318824</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2998.544708318825</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2973.894208318824</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2930.779908318824</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2958.742608318824</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2958.742608318824</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>3009.673508318825</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>3009.821988781921</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>3008.642088781921</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2870.203688781921</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2875.158788781921</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2875.158788781921</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2878.603788781922</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2878.603788781922</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2878.603788781922</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2880.785688781922</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>2880.785688781922</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2856.071288781922</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2898.525088781922</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2898.770288781922</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>3252.651288781922</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>3022.409788781922</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>3022.018188781922</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>3079.098788781921</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>3036.848288781921</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>3046.218288781921</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>3051.584388781921</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>3051.584388781921</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>3059.967688781921</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>3073.267688781922</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>3378.337688781922</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>3532.266688781922</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>3751.160688781922</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>3906.803188781922</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>3906.803188781922</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>4128.252988781922</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>4071.388788781922</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>4189.210388781922</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>4113.963088781923</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>4109.685188781923</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>4100.755188781923</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>4085.515388781923</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>4005.442188781923</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>4035.442188781923</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>4009.545188781923</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>4042.615688781923</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>3974.665488781923</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>3974.665488781923</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>3916.732188781923</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>3982.578288781923</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>3982.578288781923</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>3919.029988781923</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>3714.153488781923</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>3703.779188781923</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>3702.831488781923</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>3983.401788781923</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>3700.467188781923</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>3700.467288781923</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>3710.426488205139</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>3707.485288205139</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>3725.358388205138</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>3722.243088205139</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>3734.875188205138</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>3717.346488205138</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>3720.142788205138</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>3689.045488205139</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>3692.045488205139</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>3699.224688205139</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>3694.849088205139</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>3690.529088205139</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>3693.053688205139</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>3742.037588205139</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>4645.925888205139</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>4743.448488205139</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>4739.277288205139</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>4624.27338820514</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>2848.451477312663</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>2813.439877312663</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>2910.579877312663</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>1605.597677312663</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>1580.581777312663</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>2028.054977312663</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>1897.157977312663</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>1972.767977312663</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>1555.197877312663</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>1567.230777312663</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>1227.670477312663</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-21 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4254.803117581894</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4252.142117581894</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>4431.320117581894</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>4431.320117581894</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4369.647817581894</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3837.025717581894</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3892.664417581894</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3925.313417581894</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3962.255817581894</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3970.781417581893</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4017.331217581893</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4017.331217581893</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>4044.003317581893</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>7631.294137806613</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>7411.575637806613</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>7443.306937806614</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7369.777837806614</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>9466.890956613028</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>9749.535856613027</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10223.11745661303</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>10025.84895661303</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>10105.28595661303</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>9507.600456613027</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>9594.331602092292</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>9348.673602092293</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>8428.708702092292</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>8428.708702092292</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>7900.031402092292</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>7132.858006903288</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>7057.369406903288</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>6871.655206903288</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>6283.752906903288</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>6906.548406903288</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>6511.45303909841</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>6511.45303909841</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>6516.78993909841</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>6614.450476394943</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>6609.292676394943</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>5384.866061221558</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>5438.787361221558</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>5438.787361221558</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>5517.164371396193</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>5608.378371396193</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>5838.582271396193</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>5907.043571396193</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>4992.409371396194</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>4839.132571396194</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>3014.414708318825</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>3032.044108318825</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>3016.588308318825</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>3383.436408318825</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>3337.980508318825</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3345.249808318825</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3084.582408318824</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2913.582408318824</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2916.659508318824</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>2943.608608318825</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2943.608608318825</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2936.330908318825</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2936.330908318825</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2931.999208318824</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2931.999208318824</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2998.544708318825</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2973.894208318824</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2930.779908318824</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2958.742608318824</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2958.742608318824</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2958.742608318824</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>2963.647808318824</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2963.647808318824</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>3026.684608318824</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>3039.072708318824</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>3039.072708318824</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>3009.673508318825</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>3009.673508318825</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>3009.821988781921</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>3008.642088781921</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2870.203688781921</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2875.158788781921</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2875.158788781921</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2878.603788781922</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2878.603788781922</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2878.603788781922</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2880.785688781922</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>2880.785688781922</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2856.071288781922</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2898.525088781922</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2898.770288781922</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>3252.651288781922</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>3022.409788781922</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>3022.018188781922</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>3079.098788781921</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>3036.848288781921</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>3046.218288781921</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>3051.584388781921</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>3051.584388781921</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>3059.967688781921</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>3073.267688781922</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>3378.337688781922</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>3532.266688781922</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>3751.160688781922</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>3906.497288781922</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>3836.523888781922</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>3906.803188781922</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>3906.803188781922</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>4128.252988781922</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>4110.216088781922</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>4068.362688781922</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>4071.388788781922</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>4189.210388781922</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>4185.076988781922</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>4113.963088781923</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>4109.685188781923</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>4100.755188781923</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>4085.515388781923</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>4005.442188781923</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>4035.442188781923</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>4009.545188781923</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>4042.615688781923</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>3974.665488781923</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>3974.665488781923</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>3916.732188781923</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>3982.578288781923</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>3982.578288781923</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>3919.029988781923</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>3714.153488781923</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>3703.779188781923</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>3702.831488781923</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>3983.401788781923</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>3700.467188781923</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>3700.467288781923</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>3710.426488205139</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>3707.485288205139</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>3725.358388205138</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>3722.243088205139</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>3734.875188205138</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>3717.346488205138</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>3720.142788205138</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>3689.045488205139</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>3692.045488205139</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>3699.224688205139</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>3694.849088205139</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>3693.053688205139</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>3742.037588205139</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>3777.698388205139</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>3717.698388205139</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>3717.798388205139</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>3718.098388205139</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>3568.754688205139</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>3588.788688205139</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>3649.010888205139</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>3556.761788205139</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>3553.041588205139</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>3568.420488205139</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>4645.925888205139</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>4743.448488205139</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>4739.277288205139</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>4624.27338820514</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>2859.197677312663</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>2813.439877312663</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>2850.579877312663</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>2850.579877312663</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>2850.579877312663</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>2910.579877312663</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>2909.774277312663</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>2970.467877312663</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>1605.597677312663</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>1580.581777312663</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>2028.054977312663</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>1897.157977312663</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>1972.767977312663</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>1555.197877312663</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>1567.230777312663</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>1227.670477312663</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>1309.966877312663</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>1644.640077312663</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>998.6102773126629</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>942.307077312663</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>946.5087773126629</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>4787.053677312662</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
